--- a/biology/Zoologie/Max_Wilhelm_Karl_Draudt/Max_Wilhelm_Karl_Draudt.xlsx
+++ b/biology/Zoologie/Max_Wilhelm_Karl_Draudt/Max_Wilhelm_Karl_Draudt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Max Wilhelm Karl Draudt est un entomologiste allemand, né le 11 mars 1875 à Darmstadt et mort le 4 avril 1953 dans cette même ville.
 Ses collections de lépidoptères du Mexique sont conservées dans divers muséums notamment le Muséum Senckenberg à Francfort-sur-le-Main, le Muséum national d'histoire naturelle à Paris, le musée d'histoire naturelle de Berlin, etc.
@@ -512,7 +524,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1919. Family: Lycaenidae, pp. 744–831, pls. 144–159. In Adalbert Seitz (1910–1924), Macrolepidoptera of the World, vol. 5. American Butterflies. Alfred Kernen Verlag, Stuttgart, 1139 pp., 194 pls.</t>
         </is>
